--- a/src/ITMA/fjsh.xlsx
+++ b/src/ITMA/fjsh.xlsx
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:CP108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
@@ -2638,7 +2638,7 @@
         <v>274</v>
       </c>
       <c r="G3" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>136</v>
@@ -2856,7 +2856,7 @@
         <v>274</v>
       </c>
       <c r="G4" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>136</v>
@@ -3072,7 +3072,7 @@
         <v>123</v>
       </c>
       <c r="G5" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>136</v>
@@ -3292,7 +3292,7 @@
         <v>123</v>
       </c>
       <c r="G6" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>136</v>
@@ -3522,7 +3522,7 @@
         <v>124</v>
       </c>
       <c r="G7" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>136</v>
@@ -3752,7 +3752,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>136</v>
@@ -3970,7 +3970,7 @@
         <v>124</v>
       </c>
       <c r="G9" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>136</v>
@@ -4189,8 +4189,8 @@
       <c r="F10" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="37">
-        <v>64031900</v>
+      <c r="G10" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>136</v>
@@ -4409,8 +4409,8 @@
       <c r="F11" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="37">
-        <v>64031900</v>
+      <c r="G11" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>136</v>
@@ -4633,8 +4633,8 @@
       <c r="F12" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="37">
-        <v>64031900</v>
+      <c r="G12" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>136</v>
@@ -4853,8 +4853,8 @@
       <c r="F13" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="37">
-        <v>64031900</v>
+      <c r="G13" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>136</v>
@@ -5067,8 +5067,8 @@
       <c r="F14" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="37">
-        <v>64031900</v>
+      <c r="G14" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>136</v>
@@ -5285,8 +5285,8 @@
       <c r="F15" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="37">
-        <v>64031900</v>
+      <c r="G15" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>136</v>
@@ -5501,8 +5501,8 @@
       <c r="F16" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="37">
-        <v>64031900</v>
+      <c r="G16" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>136</v>
@@ -5721,8 +5721,8 @@
       <c r="F17" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="37">
-        <v>64031900</v>
+      <c r="G17" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>136</v>
@@ -5945,8 +5945,8 @@
       <c r="F18" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="37">
-        <v>64031900</v>
+      <c r="G18" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>136</v>
@@ -6166,7 +6166,7 @@
         <v>124</v>
       </c>
       <c r="G19" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>136</v>
@@ -6380,7 +6380,7 @@
         <v>125</v>
       </c>
       <c r="G20" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>136</v>
@@ -6598,7 +6598,7 @@
         <v>125</v>
       </c>
       <c r="G21" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>136</v>
@@ -6816,7 +6816,7 @@
         <v>125</v>
       </c>
       <c r="G22" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>136</v>
@@ -7033,8 +7033,8 @@
       <c r="F23" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="40">
-        <v>64021900</v>
+      <c r="G23" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>136</v>
@@ -7253,8 +7253,8 @@
       <c r="F24" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="40">
-        <v>64021900</v>
+      <c r="G24" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>136</v>
@@ -7473,8 +7473,8 @@
       <c r="F25" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="40">
-        <v>64021900</v>
+      <c r="G25" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>136</v>
@@ -7691,8 +7691,8 @@
       <c r="F26" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="40">
-        <v>64021900</v>
+      <c r="G26" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>136</v>
@@ -7912,7 +7912,7 @@
         <v>126</v>
       </c>
       <c r="G27" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>136</v>
@@ -8132,7 +8132,7 @@
         <v>126</v>
       </c>
       <c r="G28" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>136</v>
@@ -8350,7 +8350,7 @@
         <v>126</v>
       </c>
       <c r="G29" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>136</v>
@@ -8570,7 +8570,7 @@
         <v>126</v>
       </c>
       <c r="G30" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>136</v>
@@ -8790,7 +8790,7 @@
         <v>127</v>
       </c>
       <c r="G31" s="14">
-        <v>640219000</v>
+        <v>6402190000</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>136</v>
@@ -9010,7 +9010,7 @@
         <v>127</v>
       </c>
       <c r="G32" s="14">
-        <v>640219000</v>
+        <v>6402190000</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>136</v>
@@ -9230,7 +9230,7 @@
         <v>127</v>
       </c>
       <c r="G33" s="14">
-        <v>640219000</v>
+        <v>6402190000</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>136</v>
@@ -9448,7 +9448,7 @@
         <v>128</v>
       </c>
       <c r="G34" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>136</v>
@@ -9662,7 +9662,7 @@
         <v>129</v>
       </c>
       <c r="G35" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>136</v>
@@ -9880,7 +9880,7 @@
         <v>129</v>
       </c>
       <c r="G36" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>136</v>
@@ -10098,7 +10098,7 @@
         <v>129</v>
       </c>
       <c r="G37" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>136</v>
@@ -10316,7 +10316,7 @@
         <v>129</v>
       </c>
       <c r="G38" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>136</v>
@@ -10534,7 +10534,7 @@
         <v>129</v>
       </c>
       <c r="G39" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>136</v>
@@ -10756,7 +10756,7 @@
         <v>129</v>
       </c>
       <c r="G40" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>136</v>
@@ -10974,7 +10974,7 @@
         <v>129</v>
       </c>
       <c r="G41" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>136</v>
@@ -11186,7 +11186,7 @@
         <v>129</v>
       </c>
       <c r="G42" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>136</v>
@@ -11404,7 +11404,7 @@
         <v>129</v>
       </c>
       <c r="G43" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>136</v>
@@ -11622,7 +11622,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>136</v>
@@ -11840,7 +11840,7 @@
         <v>129</v>
       </c>
       <c r="G45" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>136</v>
@@ -12058,7 +12058,7 @@
         <v>129</v>
       </c>
       <c r="G46" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>136</v>
@@ -12275,8 +12275,8 @@
       <c r="F47" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G47" s="37">
-        <v>64031900</v>
+      <c r="G47" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>136</v>
@@ -12495,8 +12495,8 @@
       <c r="F48" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="37">
-        <v>64031900</v>
+      <c r="G48" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>136</v>
@@ -12715,8 +12715,8 @@
       <c r="F49" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="37">
-        <v>64031900</v>
+      <c r="G49" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>136</v>
@@ -12933,8 +12933,8 @@
       <c r="F50" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="37">
-        <v>64031900</v>
+      <c r="G50" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>136</v>
@@ -13153,8 +13153,8 @@
       <c r="F51" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G51" s="37">
-        <v>64031900</v>
+      <c r="G51" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>136</v>
@@ -13373,8 +13373,8 @@
       <c r="F52" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="37">
-        <v>64031900</v>
+      <c r="G52" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>136</v>
@@ -13593,8 +13593,8 @@
       <c r="F53" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G53" s="37">
-        <v>64031900</v>
+      <c r="G53" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>136</v>
@@ -13814,7 +13814,7 @@
         <v>130</v>
       </c>
       <c r="G54" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>136</v>
@@ -14034,7 +14034,7 @@
         <v>130</v>
       </c>
       <c r="G55" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>136</v>
@@ -14254,7 +14254,7 @@
         <v>130</v>
       </c>
       <c r="G56" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>136</v>
@@ -14473,8 +14473,8 @@
       <c r="F57" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="37">
-        <v>64031900</v>
+      <c r="G57" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>136</v>
@@ -14691,8 +14691,8 @@
       <c r="F58" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="37">
-        <v>64031900</v>
+      <c r="G58" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>136</v>
@@ -14911,8 +14911,8 @@
       <c r="F59" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G59" s="37">
-        <v>64031900</v>
+      <c r="G59" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>136</v>
@@ -15131,8 +15131,8 @@
       <c r="F60" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="37">
-        <v>64031900</v>
+      <c r="G60" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>136</v>
@@ -15351,8 +15351,8 @@
       <c r="F61" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="37">
-        <v>64031900</v>
+      <c r="G61" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>136</v>
@@ -15571,8 +15571,8 @@
       <c r="F62" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="37">
-        <v>64031900</v>
+      <c r="G62" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>136</v>
@@ -15792,7 +15792,7 @@
         <v>131</v>
       </c>
       <c r="G63" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>136</v>
@@ -16010,7 +16010,7 @@
         <v>131</v>
       </c>
       <c r="G64" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>136</v>
@@ -16230,7 +16230,7 @@
         <v>131</v>
       </c>
       <c r="G65" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>136</v>
@@ -16450,7 +16450,7 @@
         <v>132</v>
       </c>
       <c r="G66" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>136</v>
@@ -16668,7 +16668,7 @@
         <v>132</v>
       </c>
       <c r="G67" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>136</v>
@@ -16886,7 +16886,7 @@
         <v>132</v>
       </c>
       <c r="G68" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>136</v>
@@ -17104,7 +17104,7 @@
         <v>133</v>
       </c>
       <c r="G69" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>136</v>
@@ -17310,7 +17310,7 @@
         <v>133</v>
       </c>
       <c r="G70" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>136</v>
@@ -17516,7 +17516,7 @@
         <v>134</v>
       </c>
       <c r="G71" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>136</v>
@@ -17728,7 +17728,7 @@
         <v>134</v>
       </c>
       <c r="G72" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>136</v>
@@ -17940,7 +17940,7 @@
         <v>134</v>
       </c>
       <c r="G73" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>136</v>
@@ -18160,7 +18160,7 @@
         <v>134</v>
       </c>
       <c r="G74" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>136</v>
@@ -18372,7 +18372,7 @@
         <v>134</v>
       </c>
       <c r="G75" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>136</v>
@@ -18584,7 +18584,7 @@
         <v>134</v>
       </c>
       <c r="G76" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>136</v>
@@ -18796,7 +18796,7 @@
         <v>134</v>
       </c>
       <c r="G77" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>136</v>
@@ -19008,7 +19008,7 @@
         <v>134</v>
       </c>
       <c r="G78" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>136</v>
@@ -19220,7 +19220,7 @@
         <v>134</v>
       </c>
       <c r="G79" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>136</v>
@@ -19432,7 +19432,7 @@
         <v>134</v>
       </c>
       <c r="G80" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>136</v>
@@ -19644,7 +19644,7 @@
         <v>282</v>
       </c>
       <c r="G81" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>136</v>
@@ -19856,7 +19856,7 @@
         <v>282</v>
       </c>
       <c r="G82" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>136</v>
@@ -20068,7 +20068,7 @@
         <v>282</v>
       </c>
       <c r="G83" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>136</v>
@@ -20280,7 +20280,7 @@
         <v>282</v>
       </c>
       <c r="G84" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H84" s="14" t="s">
         <v>136</v>
@@ -20492,7 +20492,7 @@
         <v>90</v>
       </c>
       <c r="G85" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>136</v>
@@ -20704,7 +20704,7 @@
         <v>90</v>
       </c>
       <c r="G86" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>136</v>
@@ -20916,7 +20916,7 @@
         <v>90</v>
       </c>
       <c r="G87" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>136</v>
@@ -21128,7 +21128,7 @@
         <v>90</v>
       </c>
       <c r="G88" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>136</v>
@@ -21340,7 +21340,7 @@
         <v>90</v>
       </c>
       <c r="G89" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>136</v>
@@ -21552,7 +21552,7 @@
         <v>90</v>
       </c>
       <c r="G90" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>136</v>
@@ -21764,7 +21764,7 @@
         <v>91</v>
       </c>
       <c r="G91" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>136</v>
@@ -21977,8 +21977,8 @@
       <c r="F92" s="40">
         <v>91</v>
       </c>
-      <c r="G92" s="40">
-        <v>64021900</v>
+      <c r="G92" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>136</v>
@@ -22191,8 +22191,8 @@
       <c r="F93" s="40">
         <v>91</v>
       </c>
-      <c r="G93" s="40">
-        <v>64021900</v>
+      <c r="G93" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>136</v>
@@ -22413,8 +22413,8 @@
       <c r="F94" s="40">
         <v>91</v>
       </c>
-      <c r="G94" s="40">
-        <v>64021900</v>
+      <c r="G94" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>136</v>
@@ -22627,8 +22627,8 @@
       <c r="F95" s="40">
         <v>91</v>
       </c>
-      <c r="G95" s="40">
-        <v>64021900</v>
+      <c r="G95" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>136</v>
@@ -22841,8 +22841,8 @@
       <c r="F96" s="40">
         <v>91</v>
       </c>
-      <c r="G96" s="40">
-        <v>64021900</v>
+      <c r="G96" s="14">
+        <v>6402190000</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>136</v>
@@ -23056,7 +23056,7 @@
         <v>91</v>
       </c>
       <c r="G97" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>136</v>
@@ -23270,7 +23270,7 @@
         <v>92</v>
       </c>
       <c r="G98" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>136</v>
@@ -23490,7 +23490,7 @@
         <v>92</v>
       </c>
       <c r="G99" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>136</v>
@@ -23702,7 +23702,7 @@
         <v>92</v>
       </c>
       <c r="G100" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H100" s="14" t="s">
         <v>136</v>
@@ -23914,7 +23914,7 @@
         <v>92</v>
       </c>
       <c r="G101" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>136</v>
@@ -24126,7 +24126,7 @@
         <v>92</v>
       </c>
       <c r="G102" s="14">
-        <v>64031900</v>
+        <v>6402190000</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>136</v>
@@ -24338,7 +24338,7 @@
         <v>93</v>
       </c>
       <c r="G103" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>136</v>
@@ -24552,7 +24552,7 @@
         <v>93</v>
       </c>
       <c r="G104" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H104" s="14" t="s">
         <v>136</v>
@@ -24766,7 +24766,7 @@
         <v>93</v>
       </c>
       <c r="G105" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>136</v>
@@ -24980,7 +24980,7 @@
         <v>93</v>
       </c>
       <c r="G106" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>136</v>
@@ -25194,7 +25194,7 @@
         <v>135</v>
       </c>
       <c r="G107" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>136</v>
@@ -25400,7 +25400,7 @@
         <v>135</v>
       </c>
       <c r="G108" s="14">
-        <v>64021900</v>
+        <v>6402190000</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>136</v>
